--- a/0 studieschema tatd.xlsx
+++ b/0 studieschema tatd.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2023 - 2018" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Vanaf 2018" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="2017 - 2015" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
